--- a/P3_kitchen_area_air_quality_03_20_2019.xlsx
+++ b/P3_kitchen_area_air_quality_03_20_2019.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rachelmoore/Desktop/Spring Semester 2019/APPM 4580/Final Project/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rachelmoore/Desktop/Spring Semester 2019/APPM 4580/Final Project/APPM4580Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -917,7 +917,7 @@
   <dimension ref="A1:CG39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
